--- a/S3. Binary_coded_matrix_data.xlsx
+++ b/S3. Binary_coded_matrix_data.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lk549\Documents\FSDS Interview Study\Analysis phase\Supplemental material\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lk549\Documents\FSDS Interview Study\Analysis phase\Supplemental_material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25AB5570-DBAA-4144-94F2-F334540F3225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAA7B22-8959-4A84-BFA4-6747D5954878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29325" yWindow="795" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t/>
   </si>
@@ -293,13 +306,19 @@
   </si>
   <si>
     <t xml:space="preserve"> Want to protect health</t>
+  </si>
+  <si>
+    <t>Whole genome sequence data for source identification</t>
+  </si>
+  <si>
+    <t>FSMA 204 and sharing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,8 +337,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,6 +355,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="67"/>
         <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F0F0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -371,12 +402,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -682,18 +716,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:BL28"/>
+  <dimension ref="A1:BN28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BD1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BB31" sqref="BB31:BC93"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="64" width="21.453125" customWidth="1"/>
+    <col min="2" max="66" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -763,131 +797,137 @@
       <c r="W1" t="s">
         <v>49</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y1" t="s">
         <v>50</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>51</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>52</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>54</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>55</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>56</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>57</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>58</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>59</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>60</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>61</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>62</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>63</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>64</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>65</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>66</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>67</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>68</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>69</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>70</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>71</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>72</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>73</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>74</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>75</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>76</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>77</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>78</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>79</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>80</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>81</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>82</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>83</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>84</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>85</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>86</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>87</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>88</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>89</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>90</v>
       </c>
+      <c r="BN1" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -958,19 +998,19 @@
         <v>0</v>
       </c>
       <c r="X2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2" s="1">
         <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="1">
         <v>1</v>
@@ -979,28 +1019,28 @@
         <v>1</v>
       </c>
       <c r="AE2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH2" s="1">
         <v>0</v>
       </c>
       <c r="AI2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM2" s="1">
         <v>0</v>
@@ -1009,13 +1049,13 @@
         <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP2" s="1">
         <v>1</v>
       </c>
       <c r="AQ2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR2" s="1">
         <v>0</v>
@@ -1024,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU2" s="1">
         <v>1</v>
@@ -1039,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="AY2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ2" s="1">
         <v>0</v>
@@ -1051,10 +1091,10 @@
         <v>0</v>
       </c>
       <c r="BC2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE2" s="1">
         <v>0</v>
@@ -1080,8 +1120,14 @@
       <c r="BL2" s="1">
         <v>0</v>
       </c>
+      <c r="BM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN2" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1155,19 +1201,19 @@
         <v>0</v>
       </c>
       <c r="Y3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="1">
         <v>1</v>
       </c>
       <c r="AC3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3" s="1">
         <v>0</v>
@@ -1179,37 +1225,37 @@
         <v>0</v>
       </c>
       <c r="AG3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP3" s="1">
         <v>1</v>
       </c>
       <c r="AQ3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR3" s="1">
         <v>0</v>
@@ -1221,13 +1267,13 @@
         <v>0</v>
       </c>
       <c r="AU3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV3" s="1">
         <v>1</v>
       </c>
       <c r="AW3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX3" s="1">
         <v>0</v>
@@ -1236,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="AZ3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA3" s="1">
         <v>1</v>
@@ -1251,7 +1297,7 @@
         <v>1</v>
       </c>
       <c r="BE3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF3" s="1">
         <v>0</v>
@@ -1269,13 +1315,19 @@
         <v>0</v>
       </c>
       <c r="BK3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL3" s="1">
         <v>1</v>
       </c>
+      <c r="BM3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN3" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1346,10 +1398,10 @@
         <v>0</v>
       </c>
       <c r="X4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4" s="1">
         <v>0</v>
@@ -1361,10 +1413,10 @@
         <v>0</v>
       </c>
       <c r="AC4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE4" s="1">
         <v>0</v>
@@ -1379,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="AI4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>1</v>
@@ -1394,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="AN4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO4" s="1">
         <v>0</v>
@@ -1412,16 +1464,16 @@
         <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX4" s="1">
         <v>0</v>
@@ -1430,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="AZ4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4" s="1">
         <v>1</v>
@@ -1439,7 +1491,7 @@
         <v>1</v>
       </c>
       <c r="BC4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD4" s="1">
         <v>0</v>
@@ -1457,19 +1509,25 @@
         <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1540,10 +1598,10 @@
         <v>0</v>
       </c>
       <c r="X5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="1">
         <v>0</v>
@@ -1552,16 +1610,16 @@
         <v>0</v>
       </c>
       <c r="AB5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF5" s="1">
         <v>0</v>
@@ -1570,19 +1628,19 @@
         <v>0</v>
       </c>
       <c r="AH5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ5" s="1">
         <v>0</v>
       </c>
       <c r="AK5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM5" s="1">
         <v>0</v>
@@ -1591,10 +1649,10 @@
         <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ5" s="1">
         <v>0</v>
@@ -1606,25 +1664,25 @@
         <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV5" s="1">
         <v>0</v>
       </c>
       <c r="AW5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY5" s="1">
         <v>0</v>
       </c>
       <c r="AZ5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA5" s="1">
         <v>1</v>
@@ -1633,16 +1691,16 @@
         <v>1</v>
       </c>
       <c r="BC5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD5" s="1">
         <v>0</v>
       </c>
       <c r="BE5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG5" s="1">
         <v>0</v>
@@ -1662,8 +1720,14 @@
       <c r="BL5" s="1">
         <v>0</v>
       </c>
+      <c r="BM5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1734,10 +1798,10 @@
         <v>1</v>
       </c>
       <c r="X6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="1">
         <v>0</v>
@@ -1746,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="AB6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6" s="1">
         <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6" s="1">
         <v>0</v>
@@ -1794,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6" s="1">
         <v>0</v>
@@ -1806,13 +1870,13 @@
         <v>0</v>
       </c>
       <c r="AV6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW6" s="1">
         <v>1</v>
       </c>
       <c r="AX6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="1">
         <v>0</v>
@@ -1833,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="BE6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG6" s="1">
         <v>0</v>
@@ -1856,8 +1920,14 @@
       <c r="BL6" s="1">
         <v>0</v>
       </c>
+      <c r="BM6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1928,10 +1998,10 @@
         <v>0</v>
       </c>
       <c r="X7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7" s="1">
         <v>0</v>
@@ -1970,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="AL7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>1</v>
       </c>
       <c r="AP7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ7" s="1">
         <v>0</v>
@@ -1994,16 +2064,16 @@
         <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX7" s="1">
         <v>0</v>
@@ -2012,13 +2082,13 @@
         <v>0</v>
       </c>
       <c r="AZ7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA7" s="1">
         <v>1</v>
       </c>
       <c r="BB7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC7" s="1">
         <v>0</v>
@@ -2050,8 +2120,14 @@
       <c r="BL7" s="1">
         <v>0</v>
       </c>
+      <c r="BM7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2125,25 +2201,25 @@
         <v>0</v>
       </c>
       <c r="Y8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8" s="1">
         <v>0</v>
       </c>
       <c r="AB8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8" s="1">
         <v>0</v>
@@ -2152,13 +2228,13 @@
         <v>0</v>
       </c>
       <c r="AH8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK8" s="1">
         <v>1</v>
@@ -2167,7 +2243,7 @@
         <v>1</v>
       </c>
       <c r="AM8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN8" s="1">
         <v>0</v>
@@ -2185,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="AS8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>1</v>
@@ -2194,22 +2270,22 @@
         <v>1</v>
       </c>
       <c r="AV8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY8" s="1">
         <v>0</v>
       </c>
       <c r="AZ8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB8" s="1">
         <v>0</v>
@@ -2218,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE8" s="1">
         <v>1</v>
@@ -2230,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="BH8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI8" s="1">
         <v>0</v>
@@ -2244,8 +2320,14 @@
       <c r="BL8" s="1">
         <v>0</v>
       </c>
+      <c r="BM8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN8" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -2316,10 +2398,10 @@
         <v>0</v>
       </c>
       <c r="X9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9" s="1">
         <v>0</v>
@@ -2337,40 +2419,40 @@
         <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="1">
         <v>1</v>
       </c>
       <c r="AG9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH9" s="1">
         <v>0</v>
       </c>
       <c r="AI9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>1</v>
       </c>
       <c r="AK9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN9" s="1">
         <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ9" s="1">
         <v>0</v>
@@ -2379,19 +2461,19 @@
         <v>0</v>
       </c>
       <c r="AS9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU9" s="1">
         <v>0</v>
       </c>
       <c r="AV9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX9" s="1">
         <v>0</v>
@@ -2400,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="AZ9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB9" s="1">
         <v>0</v>
@@ -2427,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ9" s="1">
         <v>1</v>
@@ -2436,10 +2518,16 @@
         <v>1</v>
       </c>
       <c r="BL9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2528,10 +2616,10 @@
         <v>0</v>
       </c>
       <c r="AD10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF10" s="1">
         <v>0</v>
@@ -2564,10 +2652,10 @@
         <v>0</v>
       </c>
       <c r="AP10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR10" s="1">
         <v>0</v>
@@ -2582,22 +2670,22 @@
         <v>0</v>
       </c>
       <c r="AV10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX10" s="1">
         <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ10" s="1">
         <v>1</v>
       </c>
       <c r="BA10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB10" s="1">
         <v>0</v>
@@ -2606,10 +2694,10 @@
         <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF10" s="1">
         <v>0</v>
@@ -2632,8 +2720,14 @@
       <c r="BL10" s="1">
         <v>0</v>
       </c>
+      <c r="BM10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN10" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -2704,10 +2798,10 @@
         <v>0</v>
       </c>
       <c r="X11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11" s="1">
         <v>0</v>
@@ -2722,10 +2816,10 @@
         <v>0</v>
       </c>
       <c r="AD11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF11" s="1">
         <v>0</v>
@@ -2764,10 +2858,10 @@
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT11" s="1">
         <v>0</v>
@@ -2779,55 +2873,61 @@
         <v>0</v>
       </c>
       <c r="AW11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY11" s="1">
         <v>0</v>
       </c>
       <c r="AZ11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD11" s="1">
         <v>0</v>
       </c>
       <c r="BE11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG11" s="1">
         <v>0</v>
       </c>
       <c r="BH11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL11" s="1">
         <v>0</v>
       </c>
+      <c r="BM11" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN11" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -2898,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="X12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12" s="1">
         <v>0</v>
@@ -2916,10 +3016,10 @@
         <v>0</v>
       </c>
       <c r="AD12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF12" s="1">
         <v>0</v>
@@ -2952,16 +3052,16 @@
         <v>0</v>
       </c>
       <c r="AP12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT12" s="1">
         <v>0</v>
@@ -2973,10 +3073,10 @@
         <v>0</v>
       </c>
       <c r="AW12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY12" s="1">
         <v>0</v>
@@ -2997,10 +3097,10 @@
         <v>0</v>
       </c>
       <c r="BE12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG12" s="1">
         <v>0</v>
@@ -3020,8 +3120,14 @@
       <c r="BL12" s="1">
         <v>0</v>
       </c>
+      <c r="BM12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN12" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -3092,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="X13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13" s="1">
         <v>0</v>
@@ -3104,19 +3210,19 @@
         <v>0</v>
       </c>
       <c r="AB13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD13" s="1">
         <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG13" s="1">
         <v>0</v>
@@ -3125,10 +3231,10 @@
         <v>0</v>
       </c>
       <c r="AI13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK13" s="1">
         <v>0</v>
@@ -3146,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="AP13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ13" s="1">
         <v>1</v>
@@ -3155,7 +3261,7 @@
         <v>1</v>
       </c>
       <c r="AS13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT13" s="1">
         <v>0</v>
@@ -3164,13 +3270,13 @@
         <v>0</v>
       </c>
       <c r="AV13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW13" s="1">
         <v>1</v>
       </c>
       <c r="AX13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY13" s="1">
         <v>0</v>
@@ -3188,13 +3294,13 @@
         <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE13" s="1">
         <v>1</v>
       </c>
       <c r="BF13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG13" s="1">
         <v>0</v>
@@ -3203,10 +3309,10 @@
         <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK13" s="1">
         <v>0</v>
@@ -3214,8 +3320,14 @@
       <c r="BL13" s="1">
         <v>0</v>
       </c>
+      <c r="BM13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN13" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -3286,10 +3398,10 @@
         <v>1</v>
       </c>
       <c r="X14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14" s="1">
         <v>0</v>
@@ -3304,25 +3416,25 @@
         <v>0</v>
       </c>
       <c r="AD14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF14" s="1">
         <v>0</v>
       </c>
       <c r="AG14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK14" s="1">
         <v>0</v>
@@ -3337,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP14" s="1">
         <v>1</v>
@@ -3349,19 +3461,19 @@
         <v>1</v>
       </c>
       <c r="AS14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX14" s="1">
         <v>0</v>
@@ -3370,13 +3482,13 @@
         <v>0</v>
       </c>
       <c r="AZ14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA14" s="1">
         <v>1</v>
       </c>
       <c r="BB14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC14" s="1">
         <v>0</v>
@@ -3385,10 +3497,10 @@
         <v>0</v>
       </c>
       <c r="BE14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG14" s="1">
         <v>0</v>
@@ -3408,8 +3520,14 @@
       <c r="BL14" s="1">
         <v>0</v>
       </c>
+      <c r="BM14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN14" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -3480,31 +3598,31 @@
         <v>0</v>
       </c>
       <c r="X15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="1">
         <v>1</v>
       </c>
       <c r="Z15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15" s="1">
         <v>0</v>
       </c>
       <c r="AB15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD15" s="1">
         <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15" s="1">
         <v>0</v>
@@ -3513,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="AI15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>1</v>
@@ -3522,28 +3640,28 @@
         <v>1</v>
       </c>
       <c r="AL15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM15" s="1">
         <v>0</v>
       </c>
       <c r="AN15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT15" s="1">
         <v>0</v>
@@ -3552,10 +3670,10 @@
         <v>0</v>
       </c>
       <c r="AV15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX15" s="1">
         <v>0</v>
@@ -3564,10 +3682,10 @@
         <v>0</v>
       </c>
       <c r="AZ15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB15" s="1">
         <v>0</v>
@@ -3576,10 +3694,10 @@
         <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF15" s="1">
         <v>0</v>
@@ -3602,8 +3720,14 @@
       <c r="BL15" s="1">
         <v>0</v>
       </c>
+      <c r="BM15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN15" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -3692,10 +3816,10 @@
         <v>0</v>
       </c>
       <c r="AD16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF16" s="1">
         <v>0</v>
@@ -3710,19 +3834,19 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK16" s="1">
         <v>1</v>
       </c>
       <c r="AL16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM16" s="1">
         <v>0</v>
       </c>
       <c r="AN16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>1</v>
@@ -3731,7 +3855,7 @@
         <v>1</v>
       </c>
       <c r="AQ16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR16" s="1">
         <v>0</v>
@@ -3743,19 +3867,19 @@
         <v>0</v>
       </c>
       <c r="AU16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ16" s="1">
         <v>1</v>
@@ -3767,37 +3891,43 @@
         <v>1</v>
       </c>
       <c r="BC16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD16" s="1">
         <v>0</v>
       </c>
       <c r="BE16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF16" s="1">
         <v>1</v>
       </c>
       <c r="BG16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH16" s="1">
         <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ16" s="1">
         <v>1</v>
       </c>
       <c r="BK16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL16" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="BM16" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN16" s="1">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -3868,28 +3998,28 @@
         <v>1</v>
       </c>
       <c r="X17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF17" s="1">
         <v>0</v>
@@ -3904,46 +4034,46 @@
         <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL17" s="1">
         <v>0</v>
       </c>
       <c r="AM17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO17" s="1">
         <v>0</v>
       </c>
       <c r="AP17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR17" s="1">
         <v>0</v>
       </c>
       <c r="AS17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU17" s="1">
         <v>0</v>
       </c>
       <c r="AV17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX17" s="1">
         <v>0</v>
@@ -3952,10 +4082,10 @@
         <v>0</v>
       </c>
       <c r="AZ17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB17" s="1">
         <v>0</v>
@@ -3976,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="BH17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>1</v>
@@ -3985,13 +4115,19 @@
         <v>1</v>
       </c>
       <c r="BK17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL17" s="1">
         <v>0</v>
       </c>
+      <c r="BM17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN17" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -4080,19 +4216,19 @@
         <v>0</v>
       </c>
       <c r="AD18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI18" s="1">
         <v>1</v>
@@ -4104,7 +4240,7 @@
         <v>1</v>
       </c>
       <c r="AL18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM18" s="1">
         <v>0</v>
@@ -4113,43 +4249,43 @@
         <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ18" s="1">
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB18" s="1">
         <v>0</v>
@@ -4158,10 +4294,10 @@
         <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF18" s="1">
         <v>0</v>
@@ -4179,13 +4315,19 @@
         <v>0</v>
       </c>
       <c r="BK18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN18" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -4268,13 +4410,13 @@
         <v>0</v>
       </c>
       <c r="AB19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="1">
         <v>1</v>
       </c>
       <c r="AD19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE19" s="1">
         <v>0</v>
@@ -4289,13 +4431,13 @@
         <v>0</v>
       </c>
       <c r="AI19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>1</v>
       </c>
       <c r="AK19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL19" s="1">
         <v>0</v>
@@ -4304,22 +4446,22 @@
         <v>0</v>
       </c>
       <c r="AN19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>1</v>
       </c>
       <c r="AP19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR19" s="1">
         <v>1</v>
       </c>
       <c r="AS19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT19" s="1">
         <v>0</v>
@@ -4340,13 +4482,13 @@
         <v>0</v>
       </c>
       <c r="AZ19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA19" s="1">
         <v>1</v>
       </c>
       <c r="BB19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC19" s="1">
         <v>0</v>
@@ -4358,13 +4500,13 @@
         <v>0</v>
       </c>
       <c r="BF19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG19" s="1">
         <v>1</v>
       </c>
       <c r="BH19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI19" s="1">
         <v>0</v>
@@ -4378,8 +4520,14 @@
       <c r="BL19" s="1">
         <v>0</v>
       </c>
+      <c r="BM19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN19" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -4450,28 +4598,28 @@
         <v>0</v>
       </c>
       <c r="X20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z20" s="1">
         <v>0</v>
       </c>
       <c r="AA20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="1">
         <v>1</v>
       </c>
       <c r="AC20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF20" s="1">
         <v>0</v>
@@ -4483,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="AI20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>1</v>
@@ -4492,13 +4640,13 @@
         <v>1</v>
       </c>
       <c r="AL20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM20" s="1">
         <v>0</v>
       </c>
       <c r="AN20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>1</v>
@@ -4507,10 +4655,10 @@
         <v>1</v>
       </c>
       <c r="AQ20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS20" s="1">
         <v>1</v>
@@ -4519,7 +4667,7 @@
         <v>1</v>
       </c>
       <c r="AU20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV20" s="1">
         <v>0</v>
@@ -4534,10 +4682,10 @@
         <v>0</v>
       </c>
       <c r="AZ20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB20" s="1">
         <v>0</v>
@@ -4546,10 +4694,10 @@
         <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF20" s="1">
         <v>0</v>
@@ -4558,22 +4706,28 @@
         <v>0</v>
       </c>
       <c r="BH20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL20" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="BM20" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN20" s="1">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -4644,25 +4798,25 @@
         <v>0</v>
       </c>
       <c r="X21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="1">
         <v>1</v>
       </c>
       <c r="AD21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE21" s="1">
         <v>0</v>
@@ -4674,16 +4828,16 @@
         <v>0</v>
       </c>
       <c r="AH21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL21" s="1">
         <v>0</v>
@@ -4692,22 +4846,22 @@
         <v>0</v>
       </c>
       <c r="AN21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>1</v>
       </c>
       <c r="AP21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ21" s="1">
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT21" s="1">
         <v>0</v>
@@ -4716,13 +4870,13 @@
         <v>0</v>
       </c>
       <c r="AV21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW21" s="1">
         <v>1</v>
       </c>
       <c r="AX21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY21" s="1">
         <v>0</v>
@@ -4734,10 +4888,10 @@
         <v>0</v>
       </c>
       <c r="BB21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD21" s="1">
         <v>0</v>
@@ -4752,10 +4906,10 @@
         <v>0</v>
       </c>
       <c r="BH21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ21" s="1">
         <v>0</v>
@@ -4766,8 +4920,14 @@
       <c r="BL21" s="1">
         <v>0</v>
       </c>
+      <c r="BM21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN21" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -4850,16 +5010,16 @@
         <v>0</v>
       </c>
       <c r="AB22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF22" s="1">
         <v>0</v>
@@ -4871,13 +5031,13 @@
         <v>0</v>
       </c>
       <c r="AI22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>1</v>
       </c>
       <c r="AK22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL22" s="1">
         <v>0</v>
@@ -4886,13 +5046,13 @@
         <v>0</v>
       </c>
       <c r="AN22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>1</v>
       </c>
       <c r="AP22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ22" s="1">
         <v>0</v>
@@ -4910,22 +5070,22 @@
         <v>0</v>
       </c>
       <c r="AV22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW22" s="1">
         <v>1</v>
       </c>
       <c r="AX22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY22" s="1">
         <v>0</v>
       </c>
       <c r="AZ22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB22" s="1">
         <v>0</v>
@@ -4937,10 +5097,10 @@
         <v>0</v>
       </c>
       <c r="BE22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG22" s="1">
         <v>0</v>
@@ -4949,10 +5109,10 @@
         <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK22" s="1">
         <v>0</v>
@@ -4960,8 +5120,14 @@
       <c r="BL22" s="1">
         <v>0</v>
       </c>
+      <c r="BM22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN22" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -5032,10 +5198,10 @@
         <v>0</v>
       </c>
       <c r="X23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z23" s="1">
         <v>0</v>
@@ -5044,10 +5210,10 @@
         <v>0</v>
       </c>
       <c r="AB23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD23" s="1">
         <v>0</v>
@@ -5056,10 +5222,10 @@
         <v>0</v>
       </c>
       <c r="AF23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH23" s="1">
         <v>0</v>
@@ -5068,10 +5234,10 @@
         <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL23" s="1">
         <v>0</v>
@@ -5086,10 +5252,10 @@
         <v>0</v>
       </c>
       <c r="AP23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR23" s="1">
         <v>0</v>
@@ -5098,31 +5264,31 @@
         <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV23" s="1">
         <v>0</v>
       </c>
       <c r="AW23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY23" s="1">
         <v>0</v>
       </c>
       <c r="AZ23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA23" s="1">
         <v>1</v>
       </c>
       <c r="BB23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC23" s="1">
         <v>0</v>
@@ -5143,10 +5309,10 @@
         <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK23" s="1">
         <v>0</v>
@@ -5154,8 +5320,14 @@
       <c r="BL23" s="1">
         <v>0</v>
       </c>
+      <c r="BM23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN23" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -5226,10 +5398,10 @@
         <v>0</v>
       </c>
       <c r="X24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z24" s="1">
         <v>0</v>
@@ -5244,16 +5416,16 @@
         <v>0</v>
       </c>
       <c r="AD24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>1</v>
       </c>
       <c r="AF24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH24" s="1">
         <v>1</v>
@@ -5262,7 +5434,7 @@
         <v>1</v>
       </c>
       <c r="AJ24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK24" s="1">
         <v>0</v>
@@ -5283,25 +5455,25 @@
         <v>0</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS24" s="1">
         <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX24" s="1">
         <v>0</v>
@@ -5310,10 +5482,10 @@
         <v>0</v>
       </c>
       <c r="AZ24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB24" s="1">
         <v>0</v>
@@ -5334,22 +5506,28 @@
         <v>0</v>
       </c>
       <c r="BH24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ24" s="1">
         <v>0</v>
       </c>
       <c r="BK24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL24" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN24" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -5432,25 +5610,25 @@
         <v>0</v>
       </c>
       <c r="AB25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI25" s="1">
         <v>1</v>
@@ -5459,7 +5637,7 @@
         <v>1</v>
       </c>
       <c r="AK25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL25" s="1">
         <v>0</v>
@@ -5468,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="AN25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>1</v>
@@ -5477,34 +5655,34 @@
         <v>1</v>
       </c>
       <c r="AQ25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR25" s="1">
         <v>0</v>
       </c>
       <c r="AS25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU25" s="1">
         <v>0</v>
       </c>
       <c r="AV25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX25" s="1">
         <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA25" s="1">
         <v>0</v>
@@ -5528,13 +5706,13 @@
         <v>0</v>
       </c>
       <c r="BH25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>1</v>
       </c>
       <c r="BJ25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK25" s="1">
         <v>0</v>
@@ -5542,8 +5720,14 @@
       <c r="BL25" s="1">
         <v>0</v>
       </c>
+      <c r="BM25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN25" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -5617,28 +5801,28 @@
         <v>0</v>
       </c>
       <c r="Y26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA26" s="1">
         <v>0</v>
       </c>
       <c r="AB26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD26" s="1">
         <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG26" s="1">
         <v>0</v>
@@ -5665,7 +5849,7 @@
         <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP26" s="1">
         <v>1</v>
@@ -5683,7 +5867,7 @@
         <v>1</v>
       </c>
       <c r="AU26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV26" s="1">
         <v>0</v>
@@ -5692,7 +5876,7 @@
         <v>0</v>
       </c>
       <c r="AX26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>1</v>
@@ -5701,7 +5885,7 @@
         <v>1</v>
       </c>
       <c r="BA26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB26" s="1">
         <v>0</v>
@@ -5736,8 +5920,14 @@
       <c r="BL26" s="1">
         <v>0</v>
       </c>
+      <c r="BM26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN26" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -5820,16 +6010,16 @@
         <v>0</v>
       </c>
       <c r="AB27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF27" s="1">
         <v>0</v>
@@ -5868,25 +6058,25 @@
         <v>0</v>
       </c>
       <c r="AR27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW27" s="1">
         <v>1</v>
       </c>
       <c r="AX27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY27" s="1">
         <v>0</v>
@@ -5925,13 +6115,19 @@
         <v>0</v>
       </c>
       <c r="BK27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL27" s="1">
         <v>1</v>
       </c>
+      <c r="BM27" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN27" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -6002,10 +6198,10 @@
         <v>1</v>
       </c>
       <c r="X28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z28" s="1">
         <v>0</v>
@@ -6014,16 +6210,16 @@
         <v>0</v>
       </c>
       <c r="AB28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF28" s="1">
         <v>0</v>
@@ -6038,13 +6234,13 @@
         <v>0</v>
       </c>
       <c r="AJ28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK28" s="1">
         <v>1</v>
       </c>
       <c r="AL28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM28" s="1">
         <v>0</v>
@@ -6062,31 +6258,31 @@
         <v>0</v>
       </c>
       <c r="AR28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS28" s="1">
         <v>1</v>
       </c>
       <c r="AT28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU28" s="1">
         <v>0</v>
       </c>
       <c r="AV28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX28" s="1">
         <v>0</v>
       </c>
       <c r="AY28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA28" s="1">
         <v>0</v>
@@ -6110,19 +6306,25 @@
         <v>0</v>
       </c>
       <c r="BH28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL28" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="BM28" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN28" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
